--- a/sputnik/personal/ee/285ee.xlsx
+++ b/sputnik/personal/ee/285ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -24,18 +24,9 @@
     <t>Т2</t>
   </si>
   <si>
-    <t>День/ночь</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Тариф </t>
   </si>
   <si>
-    <t>Сумма оплаты</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -45,17 +36,29 @@
     <t xml:space="preserve">кВт/ч к оплате </t>
   </si>
   <si>
-    <t>?</t>
+    <t>День/ ночь</t>
+  </si>
+  <si>
+    <t>Начислено по представленым показаниям и действующему тарифу</t>
+  </si>
+  <si>
+    <t>всего начислено к оплате</t>
+  </si>
+  <si>
+    <t>оплачено</t>
+  </si>
+  <si>
+    <t>итого за период</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="#,##0.00\ &quot;₽&quot;"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,14 +76,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -122,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -135,18 +130,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -207,7 +197,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,10 +229,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,7 +263,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -450,17 +438,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F20:F21"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -468,454 +456,162 @@
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" ht="51.75" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="4">
-        <v>43323</v>
+        <v>43808</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>1600</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="C2" s="3">
+        <v>2080</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
-        <v>530</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="3">
+        <v>830</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="4">
-        <v>43358</v>
+        <v>43840</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>1660</v>
+        <v>2140</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D9" si="0">C4-C2</f>
+        <f t="shared" ref="D4:D5" si="0">C4-C2</f>
         <v>60</v>
       </c>
       <c r="E4" s="3">
-        <v>4.5</v>
+        <v>4.49</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>D4*E4</f>
+        <v>269.40000000000003</v>
+      </c>
+      <c r="G4" s="8">
+        <f>SUM(F4,F5)</f>
+        <v>342.30000000000007</v>
+      </c>
+      <c r="H4" s="8">
+        <v>342.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>590</v>
+        <v>860</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E5" s="3">
-        <v>2.35</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" si="1"/>
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>43569</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1760</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="E6" s="9">
-        <v>4.57</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>457</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>660</v>
-      </c>
-      <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="E7" s="9">
-        <v>2.39</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>167.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>43639</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1810</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="E8" s="9">
-        <v>4.57</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>228.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>700</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="E9" s="9">
-        <v>2.39</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="1"/>
-        <v>95.600000000000009</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>43667</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="8">
-        <v>4.49</v>
-      </c>
-      <c r="F10" s="6">
-        <v>594.79999999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="9">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>43707</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1880</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="9">
-        <v>4.49</v>
-      </c>
-      <c r="F12" s="6">
-        <v>366.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>750</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="9">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" ref="F13:F19" si="2">D13*E13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>43707</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1930</v>
-      </c>
-      <c r="D14" s="3">
-        <f t="shared" ref="D14:D21" si="3">C14-C12</f>
-        <v>50</v>
-      </c>
-      <c r="E14" s="9">
-        <v>4.49</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" si="2"/>
-        <v>224.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="3">
-        <v>770</v>
-      </c>
-      <c r="D15" s="3">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="E15" s="9">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="2"/>
-        <v>48.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>43777</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3">
-        <v>2020</v>
-      </c>
-      <c r="D16" s="3">
-        <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="E16" s="9">
-        <v>4.49</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" si="2"/>
-        <v>404.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="3">
-        <v>800</v>
-      </c>
-      <c r="D17" s="3">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="E17" s="9">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" si="2"/>
+        <f>D5*E5</f>
         <v>72.900000000000006</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>43808</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2080</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="E18" s="9">
-        <v>4.49</v>
-      </c>
-      <c r="F18" s="6">
-        <f t="shared" si="2"/>
-        <v>269.40000000000003</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="3">
-        <v>830</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="E19" s="9">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F19" s="6">
-        <f t="shared" si="2"/>
-        <v>72.900000000000006</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>43840</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2140</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="E20" s="9">
-        <v>4.49</v>
-      </c>
-      <c r="F20" s="6">
-        <f>D20*E20</f>
-        <v>269.40000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" s="3">
-        <v>860</v>
-      </c>
-      <c r="D21" s="3">
-        <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="E21" s="9">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="F21" s="6">
-        <f>D21*E21</f>
-        <v>72.900000000000006</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="8">
+        <f>SUM(G2:G5)</f>
+        <v>342.30000000000007</v>
+      </c>
+      <c r="H6" s="8">
+        <f>SUM(H2:H5)</f>
+        <v>342.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -925,12 +621,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -939,12 +635,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/285ee.xlsx
+++ b/sputnik/personal/ee/285ee.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="12120" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -54,11 +54,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;₽&quot;"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,7 +197,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -229,9 +229,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -263,6 +264,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -438,17 +440,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -462,7 +464,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="51.75" customHeight="1">
+    <row r="1" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -488,7 +490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43808</v>
       </c>
@@ -504,7 +506,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -518,7 +520,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43840</v>
       </c>
@@ -547,7 +549,7 @@
         <v>342.3</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -569,49 +571,98 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>10</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>43963</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4.49</v>
+      </c>
+      <c r="F6" s="6">
+        <f>D6*E6</f>
+        <v>0</v>
       </c>
       <c r="G6" s="8">
-        <f>SUM(G2:G5)</f>
-        <v>342.30000000000007</v>
+        <f>SUM(F6,F7)</f>
+        <v>0</v>
       </c>
       <c r="H6" s="8">
-        <f>SUM(H2:H5)</f>
-        <v>342.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+        <v>366.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="F7" s="6">
+        <f>D7*E7</f>
+        <v>0</v>
+      </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="8">
+        <f>SUM(G2:G5)</f>
+        <v>342.30000000000007</v>
+      </c>
+      <c r="H8" s="8">
+        <f>SUM(H2:H7)</f>
+        <v>708.90000000000009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -621,12 +672,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -635,12 +686,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sputnik/personal/ee/285ee.xlsx
+++ b/sputnik/personal/ee/285ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -444,10 +444,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -621,30 +621,53 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>10</v>
+      <c r="A8" s="4">
+        <v>44099</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2530</v>
+      </c>
+      <c r="D8" s="3">
+        <f>SUM(C8,-C4)</f>
+        <v>390</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F8" s="6">
+        <f>D8*E8</f>
+        <v>1836.9</v>
       </c>
       <c r="G8" s="8">
-        <f>SUM(G2:G5)</f>
-        <v>342.30000000000007</v>
+        <f>SUM(F8,F9)</f>
+        <v>2346.9</v>
       </c>
       <c r="H8" s="8">
-        <f>SUM(H2:H7)</f>
-        <v>708.90000000000009</v>
+        <v>1962.3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1060</v>
+      </c>
+      <c r="D9" s="3">
+        <f>SUM(C9,-C5)</f>
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F9" s="6">
+        <f>D9*E9</f>
+        <v>509.99999999999994</v>
+      </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
@@ -654,7 +677,17 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="8">
+        <f>SUM(G2:G9)</f>
+        <v>2689.2000000000003</v>
+      </c>
+      <c r="H10" s="8">
+        <f>SUM(H2:H9)</f>
+        <v>2671.2</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
@@ -663,6 +696,24 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/285ee.xlsx
+++ b/sputnik/personal/ee/285ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -444,7 +444,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
@@ -538,7 +538,7 @@
         <v>4.49</v>
       </c>
       <c r="F4" s="6">
-        <f>D4*E4</f>
+        <f t="shared" ref="F4:F9" si="1">D4*E4</f>
         <v>269.40000000000003</v>
       </c>
       <c r="G4" s="8">
@@ -565,7 +565,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F5" s="6">
-        <f>D5*E5</f>
+        <f t="shared" si="1"/>
         <v>72.900000000000006</v>
       </c>
       <c r="G5" s="8"/>
@@ -588,7 +588,7 @@
         <v>4.49</v>
       </c>
       <c r="F6" s="6">
-        <f>D6*E6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G6" s="8">
@@ -614,7 +614,7 @@
         <v>2.4300000000000002</v>
       </c>
       <c r="F7" s="6">
-        <f>D7*E7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G7" s="8"/>
@@ -638,7 +638,7 @@
         <v>4.71</v>
       </c>
       <c r="F8" s="6">
-        <f>D8*E8</f>
+        <f t="shared" si="1"/>
         <v>1836.9</v>
       </c>
       <c r="G8" s="8">
@@ -665,37 +665,60 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="F9" s="6">
-        <f>D9*E9</f>
+        <f t="shared" si="1"/>
         <v>509.99999999999994</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>10</v>
+      <c r="A10" s="4">
+        <v>44113</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="D10" s="3">
+        <f>SUM(C10,-C8)</f>
+        <v>170</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" ref="F10:F11" si="2">D10*E10</f>
+        <v>800.7</v>
       </c>
       <c r="G10" s="8">
-        <f>SUM(G2:G9)</f>
-        <v>2689.2000000000003</v>
+        <f>SUM(F10,F11)</f>
+        <v>1055.7</v>
       </c>
       <c r="H10" s="8">
-        <f>SUM(H2:H9)</f>
-        <v>2671.2</v>
+        <v>1055.7</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1160</v>
+      </c>
+      <c r="D11" s="3">
+        <f>SUM(C11,-C9)</f>
+        <v>100</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="2"/>
+        <v>254.99999999999997</v>
+      </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
@@ -705,7 +728,17 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="8">
+        <f>SUM(G2:G9)</f>
+        <v>2689.2000000000003</v>
+      </c>
+      <c r="H12" s="8">
+        <f>SUM(H2:H9)</f>
+        <v>2671.2</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -714,6 +747,24 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/285ee.xlsx
+++ b/sputnik/personal/ee/285ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -444,10 +444,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -723,30 +723,53 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>10</v>
+      <c r="A12" s="4">
+        <v>44144</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2850</v>
+      </c>
+      <c r="D12" s="3">
+        <f>SUM(C12,-C10)</f>
+        <v>150</v>
+      </c>
+      <c r="E12" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" ref="F12:F13" si="3">D12*E12</f>
+        <v>706.5</v>
       </c>
       <c r="G12" s="8">
-        <f>SUM(G2:G9)</f>
-        <v>2689.2000000000003</v>
+        <f>SUM(F12,F13)</f>
+        <v>834</v>
       </c>
       <c r="H12" s="8">
-        <f>SUM(H2:H9)</f>
-        <v>2671.2</v>
+        <v>834</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1210</v>
+      </c>
+      <c r="D13" s="3">
+        <f>SUM(C13,-C11)</f>
+        <v>50</v>
+      </c>
+      <c r="E13" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="3"/>
+        <v>127.49999999999999</v>
+      </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
@@ -756,7 +779,17 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="8">
+        <f>SUM(G2:G9)</f>
+        <v>2689.2000000000003</v>
+      </c>
+      <c r="H14" s="8">
+        <f>SUM(H2:H9)</f>
+        <v>2671.2</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
@@ -765,6 +798,24 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/285ee.xlsx
+++ b/sputnik/personal/ee/285ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -444,10 +444,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -774,30 +774,53 @@
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
-        <v>10</v>
+      <c r="A14" s="4">
+        <v>44172</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2950</v>
+      </c>
+      <c r="D14" s="3">
+        <f>SUM(C14,-C12)</f>
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" ref="F14:F15" si="4">D14*E14</f>
+        <v>471</v>
       </c>
       <c r="G14" s="8">
-        <f>SUM(G2:G9)</f>
-        <v>2689.2000000000003</v>
+        <f>SUM(F14,F15)</f>
+        <v>598.5</v>
       </c>
       <c r="H14" s="8">
-        <f>SUM(H2:H9)</f>
-        <v>2671.2</v>
+        <v>598.5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1260</v>
+      </c>
+      <c r="D15" s="3">
+        <f>SUM(C15,-C13)</f>
+        <v>50</v>
+      </c>
+      <c r="E15" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="4"/>
+        <v>127.49999999999999</v>
+      </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
@@ -807,15 +830,43 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="8">
+        <f>SUM(G2:G15)</f>
+        <v>5177.4000000000005</v>
+      </c>
+      <c r="H16" s="8">
+        <f>SUM(H2:H15)</f>
+        <v>5159.3999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/285ee.xlsx
+++ b/sputnik/personal/ee/285ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -444,7 +444,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
@@ -682,14 +682,14 @@
         <v>2700</v>
       </c>
       <c r="D10" s="3">
-        <f>SUM(C10,-C8)</f>
+        <f t="shared" ref="D10:D17" si="2">SUM(C10,-C8)</f>
         <v>170</v>
       </c>
       <c r="E10" s="3">
         <v>4.71</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" ref="F10:F11" si="2">D10*E10</f>
+        <f t="shared" ref="F10:F11" si="3">D10*E10</f>
         <v>800.7</v>
       </c>
       <c r="G10" s="8">
@@ -709,14 +709,14 @@
         <v>1160</v>
       </c>
       <c r="D11" s="3">
-        <f>SUM(C11,-C9)</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E11" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>254.99999999999997</v>
       </c>
       <c r="G11" s="8"/>
@@ -733,14 +733,14 @@
         <v>2850</v>
       </c>
       <c r="D12" s="3">
-        <f>SUM(C12,-C10)</f>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="E12" s="3">
         <v>4.71</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" ref="F12:F13" si="3">D12*E12</f>
+        <f t="shared" ref="F12:F13" si="4">D12*E12</f>
         <v>706.5</v>
       </c>
       <c r="G12" s="8">
@@ -760,14 +760,14 @@
         <v>1210</v>
       </c>
       <c r="D13" s="3">
-        <f>SUM(C13,-C11)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="E13" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>127.49999999999999</v>
       </c>
       <c r="G13" s="8"/>
@@ -784,14 +784,14 @@
         <v>2950</v>
       </c>
       <c r="D14" s="3">
-        <f>SUM(C14,-C12)</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="E14" s="3">
         <v>4.71</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" ref="F14:F15" si="4">D14*E14</f>
+        <f t="shared" ref="F14:F15" si="5">D14*E14</f>
         <v>471</v>
       </c>
       <c r="G14" s="8">
@@ -811,44 +811,67 @@
         <v>1260</v>
       </c>
       <c r="D15" s="3">
-        <f>SUM(C15,-C13)</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="E15" s="3">
         <v>2.5499999999999998</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>127.49999999999999</v>
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2" t="s">
-        <v>10</v>
+      <c r="A16" s="4">
+        <v>43843</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3110</v>
+      </c>
+      <c r="D16" s="3">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="E16" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" ref="F16:F17" si="6">D16*E16</f>
+        <v>753.6</v>
       </c>
       <c r="G16" s="8">
-        <f>SUM(G2:G15)</f>
-        <v>5177.4000000000005</v>
+        <f>SUM(F16,F17)</f>
+        <v>881.1</v>
       </c>
       <c r="H16" s="8">
-        <f>SUM(H2:H15)</f>
-        <v>5159.3999999999996</v>
+        <v>881.1</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1310</v>
+      </c>
+      <c r="D17" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="6"/>
+        <v>127.49999999999999</v>
+      </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
@@ -858,7 +881,17 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="8">
+        <f>SUM(G2:G15)</f>
+        <v>5177.4000000000005</v>
+      </c>
+      <c r="H18" s="8">
+        <f>SUM(H2:H15)</f>
+        <v>5159.3999999999996</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
@@ -867,6 +900,24 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/285ee.xlsx
+++ b/sputnik/personal/ee/285ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -444,10 +444,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -876,48 +876,201 @@
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
+      <c r="A18" s="4">
+        <v>44237</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>3260</v>
+      </c>
+      <c r="D18" s="3">
+        <f t="shared" ref="D18:D19" si="7">SUM(C18,-C16)</f>
+        <v>150</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" ref="F18:F19" si="8">D18*E18</f>
+        <v>706.5</v>
+      </c>
+      <c r="G18" s="8">
+        <f>SUM(F18,F19)</f>
+        <v>834</v>
+      </c>
+      <c r="H18" s="8">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1360</v>
+      </c>
+      <c r="D19" s="3">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="8"/>
+        <v>127.49999999999999</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>44266</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>3410</v>
+      </c>
+      <c r="D20" s="3">
+        <f t="shared" ref="D20:D21" si="9">SUM(C20,-C18)</f>
+        <v>150</v>
+      </c>
+      <c r="E20" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" ref="F20:F21" si="10">D20*E20</f>
+        <v>706.5</v>
+      </c>
+      <c r="G20" s="8">
+        <f>SUM(F20,F21)</f>
+        <v>834</v>
+      </c>
+      <c r="H20" s="8">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1410</v>
+      </c>
+      <c r="D21" s="3">
+        <f t="shared" si="9"/>
+        <v>50</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="10"/>
+        <v>127.49999999999999</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>44298</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>3510</v>
+      </c>
+      <c r="D22" s="3">
+        <f t="shared" ref="D22:D23" si="11">SUM(C22,-C20)</f>
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" ref="F22:F23" si="12">D22*E22</f>
+        <v>471</v>
+      </c>
+      <c r="G22" s="8">
+        <f>SUM(F22,F23)</f>
+        <v>598.5</v>
+      </c>
+      <c r="H22" s="8">
+        <v>598.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1460</v>
+      </c>
+      <c r="D23" s="3">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="E23" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="12"/>
+        <v>127.49999999999999</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G24" s="8">
         <f>SUM(G2:G15)</f>
         <v>5177.4000000000005</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H24" s="8">
         <f>SUM(H2:H15)</f>
         <v>5159.3999999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/285ee.xlsx
+++ b/sputnik/personal/ee/285ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -82,12 +82,18 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -117,7 +123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -137,6 +143,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -444,10 +451,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1029,48 +1036,150 @@
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
+      <c r="A24" s="4">
+        <v>44340</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="3">
+        <v>3510</v>
+      </c>
+      <c r="D24" s="3">
+        <f t="shared" ref="D24:D25" si="13">SUM(C24,-C22)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" ref="F24:F25" si="14">D24*E24</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="9">
+        <f>SUM(F24,F25)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="9">
+        <v>859.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1460</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>44356</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3960</v>
+      </c>
+      <c r="D26" s="3">
+        <f t="shared" ref="D26:D27" si="15">SUM(C26,-C24)</f>
+        <v>450</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" ref="F26:F27" si="16">D26*E26</f>
+        <v>2119.5</v>
+      </c>
+      <c r="G26" s="9">
+        <f>SUM(F26,F27)</f>
+        <v>2655</v>
+      </c>
+      <c r="H26" s="9">
+        <v>1795.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1670</v>
+      </c>
+      <c r="D27" s="3">
+        <f t="shared" si="15"/>
+        <v>210</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="16"/>
+        <v>535.5</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="8">
-        <f>SUM(G2:G15)</f>
-        <v>5177.4000000000005</v>
-      </c>
-      <c r="H24" s="8">
-        <f>SUM(H2:H15)</f>
-        <v>5159.3999999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="G28" s="8">
+        <f>SUM(G2:G27)</f>
+        <v>10980</v>
+      </c>
+      <c r="H28" s="8">
+        <f>SUM(H2:H27)</f>
+        <v>10962</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/285ee.xlsx
+++ b/sputnik/personal/ee/285ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -82,7 +82,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,6 +92,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -123,7 +129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -144,6 +150,7 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -451,10 +458,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1138,30 +1145,53 @@
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="8">
-        <f>SUM(G2:G27)</f>
-        <v>10980</v>
-      </c>
-      <c r="H28" s="8">
-        <f>SUM(H2:H27)</f>
-        <v>10962</v>
+      <c r="A28" s="4">
+        <v>44392</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3">
+        <v>4070</v>
+      </c>
+      <c r="D28" s="3">
+        <f t="shared" ref="D28:D29" si="17">SUM(C28,-C26)</f>
+        <v>110</v>
+      </c>
+      <c r="E28" s="3">
+        <v>4.71</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" ref="F28:F29" si="18">D28*E28</f>
+        <v>518.1</v>
+      </c>
+      <c r="G28" s="10">
+        <f>SUM(F28,F29)</f>
+        <v>773.1</v>
+      </c>
+      <c r="H28" s="10">
+        <v>773.1</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1770</v>
+      </c>
+      <c r="D29" s="3">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="E29" s="3">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="18"/>
+        <v>254.99999999999997</v>
+      </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
     </row>
@@ -1171,7 +1201,17 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="8">
+        <f>SUM(G2:G27)</f>
+        <v>10980</v>
+      </c>
+      <c r="H30" s="8">
+        <f>SUM(H2:H27)</f>
+        <v>10962</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
@@ -1180,6 +1220,24 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/285ee.xlsx
+++ b/sputnik/personal/ee/285ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -458,10 +458,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1196,30 +1196,53 @@
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="8">
-        <f>SUM(G2:G27)</f>
-        <v>10980</v>
-      </c>
-      <c r="H30" s="8">
-        <f>SUM(H2:H27)</f>
-        <v>10962</v>
+      <c r="A30" s="4">
+        <v>44447</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="3">
+        <v>4270</v>
+      </c>
+      <c r="D30" s="3">
+        <f t="shared" ref="D30:D31" si="19">SUM(C30,-C28)</f>
+        <v>200</v>
+      </c>
+      <c r="E30" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" ref="F30:F31" si="20">D30*E30</f>
+        <v>992</v>
+      </c>
+      <c r="G30" s="10">
+        <f>SUM(F30,F31)</f>
+        <v>1126</v>
+      </c>
+      <c r="H30" s="10">
+        <v>1126</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1820</v>
+      </c>
+      <c r="D31" s="3">
+        <f t="shared" si="19"/>
+        <v>50</v>
+      </c>
+      <c r="E31" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F31" s="6">
+        <f t="shared" si="20"/>
+        <v>134</v>
+      </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
     </row>
@@ -1229,15 +1252,43 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="8">
+        <f>SUM(G2:G27)</f>
+        <v>10980</v>
+      </c>
+      <c r="H32" s="8">
+        <f>SUM(H2:H27)</f>
+        <v>10962</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/285ee.xlsx
+++ b/sputnik/personal/ee/285ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -458,10 +458,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1247,30 +1247,53 @@
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="8">
-        <f>SUM(G2:G27)</f>
-        <v>10980</v>
-      </c>
-      <c r="H32" s="8">
-        <f>SUM(H2:H27)</f>
-        <v>10962</v>
+      <c r="A32" s="4">
+        <v>44483</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3">
+        <v>4470</v>
+      </c>
+      <c r="D32" s="3">
+        <f t="shared" ref="D32:D33" si="21">SUM(C32,-C30)</f>
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" ref="F32:F33" si="22">D32*E32</f>
+        <v>992</v>
+      </c>
+      <c r="G32" s="10">
+        <f>SUM(F32,F33)</f>
+        <v>1260</v>
+      </c>
+      <c r="H32" s="10">
+        <v>1260</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1920</v>
+      </c>
+      <c r="D33" s="3">
+        <f t="shared" si="21"/>
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F33" s="6">
+        <f t="shared" si="22"/>
+        <v>268</v>
+      </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
     </row>
@@ -1280,7 +1303,17 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="8">
+        <f>SUM(G2:G27)</f>
+        <v>10980</v>
+      </c>
+      <c r="H34" s="8">
+        <f>SUM(H2:H27)</f>
+        <v>10962</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
@@ -1289,6 +1322,24 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/ee/285ee.xlsx
+++ b/sputnik/personal/ee/285ee.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="11">
   <si>
     <t>Т1</t>
   </si>
@@ -458,10 +458,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1298,48 +1298,150 @@
       <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2" t="s">
+      <c r="A34" s="4">
+        <v>44512</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3">
+        <v>4570</v>
+      </c>
+      <c r="D34" s="3">
+        <f t="shared" ref="D34:D35" si="23">SUM(C34,-C32)</f>
+        <v>100</v>
+      </c>
+      <c r="E34" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="F34" s="6">
+        <f t="shared" ref="F34:F35" si="24">D34*E34</f>
+        <v>496</v>
+      </c>
+      <c r="G34" s="10">
+        <f>SUM(F34,F35)</f>
+        <v>630</v>
+      </c>
+      <c r="H34" s="10">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1970</v>
+      </c>
+      <c r="D35" s="3">
+        <f t="shared" si="23"/>
+        <v>50</v>
+      </c>
+      <c r="E35" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F35" s="6">
+        <f t="shared" si="24"/>
+        <v>134</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>44537</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3">
+        <v>4720</v>
+      </c>
+      <c r="D36" s="3">
+        <f t="shared" ref="D36:D37" si="25">SUM(C36,-C34)</f>
+        <v>150</v>
+      </c>
+      <c r="E36" s="3">
+        <v>4.96</v>
+      </c>
+      <c r="F36" s="6">
+        <f t="shared" ref="F36:F37" si="26">D36*E36</f>
+        <v>744</v>
+      </c>
+      <c r="G36" s="10">
+        <f>SUM(F36,F37)</f>
+        <v>1012</v>
+      </c>
+      <c r="H36" s="10">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3">
+        <v>2070</v>
+      </c>
+      <c r="D37" s="3">
+        <f t="shared" si="25"/>
+        <v>100</v>
+      </c>
+      <c r="E37" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="F37" s="6">
+        <f t="shared" si="26"/>
+        <v>268</v>
+      </c>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G38" s="8">
         <f>SUM(G2:G27)</f>
         <v>10980</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H38" s="8">
         <f>SUM(H2:H27)</f>
         <v>10962</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
